--- a/ExcelTemplates/Templates/template.xlsx
+++ b/ExcelTemplates/Templates/template.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>дата</t>
   </si>
@@ -349,6 +349,15 @@
   </si>
   <si>
     <t>{{Hse.NumStopCards}}</t>
+  </si>
+  <si>
+    <t>{{Hse.NumAlarmsDone}}</t>
+  </si>
+  <si>
+    <t>{{Hse.LastSafetyMeeting}}</t>
+  </si>
+  <si>
+    <t>{{Hse.Incident}}</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1365,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11:AA11"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,7 +1730,9 @@
       <c r="T12" s="43"/>
       <c r="U12" s="43"/>
       <c r="V12" s="44"/>
-      <c r="W12" s="56"/>
+      <c r="W12" s="56" t="s">
+        <v>66</v>
+      </c>
       <c r="X12" s="57"/>
       <c r="Y12" s="57"/>
       <c r="Z12" s="57"/>
@@ -1818,7 +1829,9 @@
       <c r="T15" s="43"/>
       <c r="U15" s="43"/>
       <c r="V15" s="44"/>
-      <c r="W15" s="56"/>
+      <c r="W15" s="56" t="s">
+        <v>67</v>
+      </c>
       <c r="X15" s="57"/>
       <c r="Y15" s="57"/>
       <c r="Z15" s="57"/>
@@ -1911,7 +1924,9 @@
       <c r="T18" s="43"/>
       <c r="U18" s="43"/>
       <c r="V18" s="44"/>
-      <c r="W18" s="56"/>
+      <c r="W18" s="56" t="s">
+        <v>68</v>
+      </c>
       <c r="X18" s="57"/>
       <c r="Y18" s="57"/>
       <c r="Z18" s="57"/>

--- a/ExcelTemplates/Templates/template.xlsx
+++ b/ExcelTemplates/Templates/template.xlsx
@@ -1365,7 +1365,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ExcelTemplates/Templates/template.xlsx
+++ b/ExcelTemplates/Templates/template.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>дата</t>
   </si>
@@ -358,6 +358,15 @@
   </si>
   <si>
     <t>{{Hse.Incident}}</t>
+  </si>
+  <si>
+    <t>{{Knbk.Name}}</t>
+  </si>
+  <si>
+    <t>{{Knbk.In}}</t>
+  </si>
+  <si>
+    <t>{{Knbk.Od}}</t>
   </si>
 </sst>
 </file>
@@ -830,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -856,6 +865,9 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1362,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,48 +1390,48 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:27" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="77"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="78"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="78"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
@@ -1475,491 +1487,491 @@
       <c r="AA4" s="14"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="79" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="H5" s="80" t="s">
+      <c r="F5" s="80"/>
+      <c r="H5" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="79" t="s">
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="35" t="s">
+      <c r="Q5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="37"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="79" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="79"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="79" t="s">
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="Q6" s="82" t="s">
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="Q6" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82" t="s">
+      <c r="R6" s="83"/>
+      <c r="S6" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82" t="s">
+      <c r="T6" s="83"/>
+      <c r="U6" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="82" t="s">
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="84"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="79" t="s">
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="79"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="79" t="s">
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="Q7" s="84" t="s">
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="Q7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="85"/>
-      <c r="S7" s="18" t="s">
+      <c r="R7" s="86"/>
+      <c r="S7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="19"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="29"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="30"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="62">
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="63">
         <v>2500</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="70" t="s">
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="68" t="s">
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="71" t="s">
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="54" t="s">
+      <c r="S9" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="56" t="s">
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="59"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="61"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="62"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="41"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="42"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="62">
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="63">
         <v>22</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="54" t="s">
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="68">
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="69">
         <v>55</v>
       </c>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="54" t="s">
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="56" t="s">
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="59"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="61"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="62"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="41"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="42"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="62">
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="63">
         <v>2500</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="54" t="s">
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="68" t="s">
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="54" t="s">
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="56" t="s">
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="59"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="61"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="62"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="41"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="42"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="48" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="54" t="s">
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="56" t="s">
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="59"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="60"/>
-      <c r="AA19" s="61"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="62"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
@@ -1991,222 +2003,263 @@
       <c r="AA20" s="16"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="37"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="39" t="s">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="40"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="41"/>
     </row>
     <row r="23" spans="1:27" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="26"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="27"/>
       <c r="L23" s="17" t="s">
         <v>50</v>
       </c>
       <c r="M23" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="25" t="s">
+      <c r="N23" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="O23" s="26"/>
-      <c r="P23" s="25" t="s">
+      <c r="O23" s="27"/>
+      <c r="P23" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="33" t="s">
+      <c r="Q23" s="27"/>
+      <c r="R23" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="S23" s="32"/>
-      <c r="T23" s="25" t="s">
+      <c r="S23" s="33"/>
+      <c r="T23" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="U23" s="26"/>
+      <c r="U23" s="27"/>
       <c r="V23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="W23" s="25" t="s">
+      <c r="W23" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="25" t="s">
+      <c r="X23" s="27"/>
+      <c r="Y23" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="29"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="19"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="15" t="s">
         <v>60</v>
       </c>
       <c r="F24" s="15">
         <v>155.6</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="19"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="15">
         <v>0.2</v>
       </c>
       <c r="M24" s="15">
         <v>0.2</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="19">
         <v>2500</v>
       </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="18">
+      <c r="O24" s="20"/>
+      <c r="P24" s="19">
         <v>76.5</v>
       </c>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="18">
+      <c r="Q24" s="20"/>
+      <c r="R24" s="19">
         <v>213.5</v>
       </c>
-      <c r="S24" s="19"/>
-      <c r="T24" s="18">
+      <c r="S24" s="20"/>
+      <c r="T24" s="19">
         <v>2000</v>
       </c>
-      <c r="U24" s="19"/>
+      <c r="U24" s="20"/>
       <c r="V24" s="15">
         <v>500</v>
       </c>
-      <c r="W24" s="18">
+      <c r="W24" s="19">
         <v>1.5</v>
       </c>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="18" t="s">
+      <c r="X24" s="20"/>
+      <c r="Y24" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="29"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="30"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="19"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="15">
         <v>51</v>
       </c>
       <c r="F25" s="15">
         <v>120</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="19"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="20"/>
       <c r="L25" s="15">
         <v>8.6199999999999992</v>
       </c>
       <c r="M25" s="15">
         <v>8.82</v>
       </c>
-      <c r="N25" s="18"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="20"/>
       <c r="V25" s="15"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="22"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="23"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="18">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="M26" s="18">
+        <v>8.82</v>
+      </c>
+      <c r="N26" s="19"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="88">
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="Q7:R7"/>
@@ -2287,6 +2340,14 @@
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ExcelTemplates/Templates/template.xlsx
+++ b/ExcelTemplates/Templates/template.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="156">
   <si>
     <t>дата</t>
   </si>
@@ -330,24 +330,6 @@
     <t>Сравнение с плановой траекторией</t>
   </si>
   <si>
-    <t>Долото PDC XS613</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -</t>
-  </si>
-  <si>
-    <t>Н88 Нипель</t>
-  </si>
-  <si>
-    <t>0,5м выше / 0,5м правее</t>
-  </si>
-  <si>
-    <t>ДРУ2-120РСФКТМ</t>
-  </si>
-  <si>
-    <t>Н102 Нипель / М 88 Муфта</t>
-  </si>
-  <si>
     <t>{{Hse.NumStopCards}}</t>
   </si>
   <si>
@@ -367,13 +349,348 @@
   </si>
   <si>
     <t>{{Knbk.Od}}</t>
+  </si>
+  <si>
+    <t>{{Knbk.Connection}}</t>
+  </si>
+  <si>
+    <t>{{Knbk.Len}}</t>
+  </si>
+  <si>
+    <t>{{Knbk.TotalLen}}</t>
+  </si>
+  <si>
+    <t>{{Trajectory.Md}}</t>
+  </si>
+  <si>
+    <t>{{Trajectory.Azi}}</t>
+  </si>
+  <si>
+    <t>{{Trajectory.Compare}}</t>
+  </si>
+  <si>
+    <t>{{Trajectory.Incl}}</t>
+  </si>
+  <si>
+    <t>{{Trajectory.Tvd}}</t>
+  </si>
+  <si>
+    <t>{{Trajectory.Closure}}</t>
+  </si>
+  <si>
+    <t>{{Trajectory.Dls}}</t>
+  </si>
+  <si>
+    <t>Долото</t>
+  </si>
+  <si>
+    <t>Ø Долота</t>
+  </si>
+  <si>
+    <t>Тип долота</t>
+  </si>
+  <si>
+    <t>Сер. №</t>
+  </si>
+  <si>
+    <t>Модель</t>
+  </si>
+  <si>
+    <t>Изготовитель</t>
+  </si>
+  <si>
+    <t>IADC</t>
+  </si>
+  <si>
+    <t>Всего спусков в скважину</t>
+  </si>
+  <si>
+    <t>Насадки</t>
+  </si>
+  <si>
+    <t>Интервал бурения</t>
+  </si>
+  <si>
+    <t>Проходка за сутки</t>
+  </si>
+  <si>
+    <t>Время бурения за сутки</t>
+  </si>
+  <si>
+    <t>Мех. Скорость</t>
+  </si>
+  <si>
+    <t>Общая проходка на долото</t>
+  </si>
+  <si>
+    <t>Сумарное время бурения</t>
+  </si>
+  <si>
+    <t>Состояние, код IADC</t>
+  </si>
+  <si>
+    <t>от</t>
+  </si>
+  <si>
+    <t>до</t>
+  </si>
+  <si>
+    <t>мм</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>час</t>
+  </si>
+  <si>
+    <t>м/ч</t>
+  </si>
+  <si>
+    <t>Суточные операции</t>
+  </si>
+  <si>
+    <t>Время операции</t>
+  </si>
+  <si>
+    <t>Продолжительность</t>
+  </si>
+  <si>
+    <t>Забой, м</t>
+  </si>
+  <si>
+    <t>Операция</t>
+  </si>
+  <si>
+    <t>НПВ</t>
+  </si>
+  <si>
+    <t>Режимы</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Начало</t>
+  </si>
+  <si>
+    <t>Окончание</t>
+  </si>
+  <si>
+    <t>Начальный</t>
+  </si>
+  <si>
+    <t>Конечный</t>
+  </si>
+  <si>
+    <t>Категория</t>
+  </si>
+  <si>
+    <t>Продолж.</t>
+  </si>
+  <si>
+    <t>Ответственный</t>
+  </si>
+  <si>
+    <t>Ремонт оборудования</t>
+  </si>
+  <si>
+    <t>ООО "ИНК-Сервис"</t>
+  </si>
+  <si>
+    <t>Промыло гидравлику</t>
+  </si>
+  <si>
+    <t>Итого, часов</t>
+  </si>
+  <si>
+    <t>Операции с 00:00 до 06:00</t>
+  </si>
+  <si>
+    <t>Параметры промывочной жидкости</t>
+  </si>
+  <si>
+    <t>Тип раствора</t>
+  </si>
+  <si>
+    <t>Система</t>
+  </si>
+  <si>
+    <t>Время замера</t>
+  </si>
+  <si>
+    <t>Глубина замера</t>
+  </si>
+  <si>
+    <t>Плотность</t>
+  </si>
+  <si>
+    <t>Усл. Вязкость</t>
+  </si>
+  <si>
+    <t>ПВ</t>
+  </si>
+  <si>
+    <t>ДНС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СНС </t>
+  </si>
+  <si>
+    <t>Водоотдача</t>
+  </si>
+  <si>
+    <t>Корка</t>
+  </si>
+  <si>
+    <t>Твердая фаза</t>
+  </si>
+  <si>
+    <t>Смазка</t>
+  </si>
+  <si>
+    <t>рН</t>
+  </si>
+  <si>
+    <r>
+      <t>CaCO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>скв.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>поверх.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>пригот.</t>
+    </r>
+  </si>
+  <si>
+    <t>10сек</t>
+  </si>
+  <si>
+    <t>10мин</t>
+  </si>
+  <si>
+    <r>
+      <t>г/см</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>сек</t>
+  </si>
+  <si>
+    <t>План</t>
+  </si>
+  <si>
+    <t>Факт</t>
+  </si>
+  <si>
+    <t>{{Gti.StartTime}}</t>
+  </si>
+  <si>
+    <t>{{GtiSummaryDuration}}</t>
+  </si>
+  <si>
+    <t>{{Gti.EndTime}}</t>
+  </si>
+  <si>
+    <t>{{Gti.Duration}}</t>
+  </si>
+  <si>
+    <t>{{Gti.Duration2}}</t>
+  </si>
+  <si>
+    <t>{{Gti.StartDepth}}</t>
+  </si>
+  <si>
+    <t>{{Gti.EndDepth}}</t>
+  </si>
+  <si>
+    <t>{{Gti.Operation}}</t>
+  </si>
+  <si>
+    <t>{{Gti.NptCategory}}</t>
+  </si>
+  <si>
+    <t>{{Gti.NptDuration}}</t>
+  </si>
+  <si>
+    <t>{{Gti.NptResponsible}}</t>
+  </si>
+  <si>
+    <t>{{Gti.Modes}}</t>
+  </si>
+  <si>
+    <t>{{Gti.Comment}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +802,22 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -524,7 +857,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -835,11 +1168,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -859,9 +1305,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -869,26 +1312,419 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -902,175 +1738,22 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1374,10 +2057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,48 +2073,48 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:27" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="77"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="124"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="79"/>
+      <c r="B3" s="126"/>
       <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="79"/>
+      <c r="E3" s="126"/>
       <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
@@ -1487,491 +2170,491 @@
       <c r="AA4" s="14"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="80" t="s">
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="80"/>
-      <c r="H5" s="81" t="s">
+      <c r="F5" s="39"/>
+      <c r="H5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="80" t="s">
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="37"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="86"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="80" t="s">
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="80"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="80" t="s">
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="Q6" s="83" t="s">
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="Q6" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83" t="s">
+      <c r="R6" s="127"/>
+      <c r="S6" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83" t="s">
+      <c r="T6" s="127"/>
+      <c r="U6" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83" t="s">
+      <c r="V6" s="127"/>
+      <c r="W6" s="127"/>
+      <c r="X6" s="127"/>
+      <c r="Y6" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="84"/>
+      <c r="Z6" s="127"/>
+      <c r="AA6" s="128"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="80" t="s">
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="80"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="80" t="s">
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="Q7" s="85" t="s">
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="Q7" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="86"/>
-      <c r="S7" s="19" t="s">
+      <c r="R7" s="121"/>
+      <c r="S7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="20"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="30"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="44"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="63">
+      <c r="B9" s="148"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="66">
         <v>2500</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="71" t="s">
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="69" t="s">
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="72" t="s">
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="55" t="s">
+      <c r="S9" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="59"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="138"/>
+      <c r="W9" s="129" t="s">
+        <v>59</v>
+      </c>
+      <c r="X9" s="130"/>
+      <c r="Y9" s="130"/>
+      <c r="Z9" s="130"/>
+      <c r="AA9" s="131"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="62"/>
+      <c r="A10" s="147"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="150"/>
+      <c r="S10" s="146"/>
+      <c r="T10" s="140"/>
+      <c r="U10" s="140"/>
+      <c r="V10" s="141"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="133"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="133"/>
+      <c r="AA10" s="134"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="42"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="150"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="135"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="63">
+      <c r="B12" s="137"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="66">
         <v>22</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="55" t="s">
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="69">
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="97">
         <v>55</v>
       </c>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="55" t="s">
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="59"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="137"/>
+      <c r="V12" s="138"/>
+      <c r="W12" s="129" t="s">
+        <v>60</v>
+      </c>
+      <c r="X12" s="130"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="130"/>
+      <c r="AA12" s="131"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="62"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="150"/>
+      <c r="S13" s="146"/>
+      <c r="T13" s="140"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="141"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="133"/>
+      <c r="Y13" s="133"/>
+      <c r="Z13" s="133"/>
+      <c r="AA13" s="134"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="42"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="150"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="96"/>
+      <c r="W14" s="96"/>
+      <c r="X14" s="96"/>
+      <c r="Y14" s="96"/>
+      <c r="Z14" s="96"/>
+      <c r="AA14" s="135"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="63">
+      <c r="B15" s="137"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="66">
         <v>2500</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="55" t="s">
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="69" t="s">
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="55" t="s">
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="150"/>
+      <c r="S15" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="59"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="138"/>
+      <c r="W15" s="129" t="s">
+        <v>61</v>
+      </c>
+      <c r="X15" s="130"/>
+      <c r="Y15" s="130"/>
+      <c r="Z15" s="130"/>
+      <c r="AA15" s="131"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="62"/>
+      <c r="A16" s="139"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="150"/>
+      <c r="S16" s="146"/>
+      <c r="T16" s="140"/>
+      <c r="U16" s="140"/>
+      <c r="V16" s="141"/>
+      <c r="W16" s="132"/>
+      <c r="X16" s="133"/>
+      <c r="Y16" s="133"/>
+      <c r="Z16" s="133"/>
+      <c r="AA16" s="134"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="42"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="150"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="96"/>
+      <c r="AA17" s="135"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="49" t="s">
+      <c r="B18" s="137"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="55" t="s">
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="157"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="157"/>
+      <c r="O18" s="157"/>
+      <c r="P18" s="157"/>
+      <c r="Q18" s="158"/>
+      <c r="R18" s="150"/>
+      <c r="S18" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="59"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="138"/>
+      <c r="W18" s="129" t="s">
+        <v>62</v>
+      </c>
+      <c r="X18" s="130"/>
+      <c r="Y18" s="130"/>
+      <c r="Z18" s="130"/>
+      <c r="AA18" s="131"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="60"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="62"/>
+      <c r="A19" s="139"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="160"/>
+      <c r="M19" s="160"/>
+      <c r="N19" s="160"/>
+      <c r="O19" s="160"/>
+      <c r="P19" s="160"/>
+      <c r="Q19" s="161"/>
+      <c r="R19" s="151"/>
+      <c r="S19" s="146"/>
+      <c r="T19" s="140"/>
+      <c r="U19" s="140"/>
+      <c r="V19" s="141"/>
+      <c r="W19" s="132"/>
+      <c r="X19" s="133"/>
+      <c r="Y19" s="133"/>
+      <c r="Z19" s="133"/>
+      <c r="AA19" s="134"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
@@ -2000,290 +2683,1194 @@
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
-      <c r="AA20" s="16"/>
+      <c r="AA20" s="15"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="37"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="86"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="40" t="s">
+      <c r="B22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="41"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="153"/>
+      <c r="S22" s="153"/>
+      <c r="T22" s="153"/>
+      <c r="U22" s="153"/>
+      <c r="V22" s="153"/>
+      <c r="W22" s="153"/>
+      <c r="X22" s="153"/>
+      <c r="Y22" s="153"/>
+      <c r="Z22" s="153"/>
+      <c r="AA22" s="155"/>
     </row>
     <row r="23" spans="1:27" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="17" t="s">
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="17" t="s">
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="M23" s="17" t="s">
+      <c r="M23" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="26" t="s">
+      <c r="N23" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="O23" s="27"/>
-      <c r="P23" s="26" t="s">
+      <c r="O23" s="163"/>
+      <c r="P23" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="34" t="s">
+      <c r="Q23" s="163"/>
+      <c r="R23" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="S23" s="33"/>
-      <c r="T23" s="26" t="s">
+      <c r="S23" s="88"/>
+      <c r="T23" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="U23" s="27"/>
-      <c r="V23" s="17" t="s">
+      <c r="U23" s="163"/>
+      <c r="V23" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="W23" s="26" t="s">
+      <c r="W23" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="26" t="s">
+      <c r="X23" s="163"/>
+      <c r="Y23" s="162" t="s">
         <v>58</v>
       </c>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="29"/>
+      <c r="Z23" s="164"/>
+      <c r="AA23" s="165"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="15">
-        <v>155.6</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="M24" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="N24" s="19">
+      <c r="A24" s="166" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="N24" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="O24" s="38"/>
+      <c r="P24" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="S24" s="38"/>
+      <c r="T24" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="U24" s="38"/>
+      <c r="V24" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="W24" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z24" s="74"/>
+      <c r="AA24" s="44"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="166"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="74"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="44"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="85"/>
+      <c r="T26" s="85"/>
+      <c r="U26" s="85"/>
+      <c r="V26" s="85"/>
+      <c r="W26" s="85"/>
+      <c r="X26" s="85"/>
+      <c r="Y26" s="85"/>
+      <c r="Z26" s="85"/>
+      <c r="AA26" s="86"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="167" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="90"/>
+      <c r="D27" s="110" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="90"/>
+      <c r="G27" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="94"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="L27" s="102"/>
+      <c r="M27" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="N27" s="90"/>
+      <c r="O27" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="R27" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="S27" s="90"/>
+      <c r="T27" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="U27" s="90"/>
+      <c r="V27" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="W27" s="102"/>
+      <c r="X27" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y27" s="102"/>
+      <c r="Z27" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA27" s="98"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="168"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="P28" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="91"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="91"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="103"/>
+      <c r="W28" s="104"/>
+      <c r="X28" s="103"/>
+      <c r="Y28" s="104"/>
+      <c r="Z28" s="105"/>
+      <c r="AA28" s="106"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="91"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="N29" s="38"/>
+      <c r="O29" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R29" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="S29" s="38"/>
+      <c r="T29" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="U29" s="38"/>
+      <c r="V29" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="W29" s="38"/>
+      <c r="X29" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="91"/>
+      <c r="AA29" s="99"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="108"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="81"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="76"/>
+      <c r="S31" s="76"/>
+      <c r="T31" s="76"/>
+      <c r="U31" s="76"/>
+      <c r="V31" s="76"/>
+      <c r="W31" s="76"/>
+      <c r="X31" s="76"/>
+      <c r="Y31" s="76"/>
+      <c r="Z31" s="76"/>
+      <c r="AA31" s="100"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="85"/>
+      <c r="U32" s="85"/>
+      <c r="V32" s="85"/>
+      <c r="W32" s="85"/>
+      <c r="X32" s="85"/>
+      <c r="Y32" s="85"/>
+      <c r="Z32" s="85"/>
+      <c r="AA32" s="86"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="88"/>
+      <c r="C33" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="90"/>
+      <c r="E33" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="88"/>
+      <c r="G33" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="T33" s="97"/>
+      <c r="U33" s="97"/>
+      <c r="V33" s="97"/>
+      <c r="W33" s="97"/>
+      <c r="X33" s="97"/>
+      <c r="Y33" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="98"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="91"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="91"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="N34" s="96"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q34" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="R34" s="88"/>
+      <c r="S34" s="97"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="97"/>
+      <c r="W34" s="97"/>
+      <c r="X34" s="97"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="95"/>
+      <c r="AA34" s="99"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" s="169" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="171" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="170" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="N35" s="74"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q35" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="R35" s="38"/>
+      <c r="S35" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="44"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="78"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="79"/>
+      <c r="R36" s="79"/>
+      <c r="S36" s="79"/>
+      <c r="T36" s="79"/>
+      <c r="U36" s="79"/>
+      <c r="V36" s="79"/>
+      <c r="W36" s="79"/>
+      <c r="X36" s="79"/>
+      <c r="Y36" s="79"/>
+      <c r="Z36" s="79"/>
+      <c r="AA36" s="80"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" s="81"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="82"/>
+      <c r="R37" s="82"/>
+      <c r="S37" s="82"/>
+      <c r="T37" s="82"/>
+      <c r="U37" s="82"/>
+      <c r="V37" s="82"/>
+      <c r="W37" s="82"/>
+      <c r="X37" s="82"/>
+      <c r="Y37" s="82"/>
+      <c r="Z37" s="82"/>
+      <c r="AA37" s="83"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="85"/>
+      <c r="R38" s="85"/>
+      <c r="S38" s="85"/>
+      <c r="T38" s="85"/>
+      <c r="U38" s="85"/>
+      <c r="V38" s="85"/>
+      <c r="W38" s="85"/>
+      <c r="X38" s="85"/>
+      <c r="Y38" s="85"/>
+      <c r="Z38" s="85"/>
+      <c r="AA38" s="86"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="88"/>
+      <c r="C39" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="90"/>
+      <c r="E39" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="88"/>
+      <c r="G39" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="N39" s="96"/>
+      <c r="O39" s="96"/>
+      <c r="P39" s="96"/>
+      <c r="Q39" s="96"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="T39" s="97"/>
+      <c r="U39" s="97"/>
+      <c r="V39" s="97"/>
+      <c r="W39" s="97"/>
+      <c r="X39" s="97"/>
+      <c r="Y39" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z39" s="94"/>
+      <c r="AA39" s="98"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="91"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" s="91"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="92"/>
+      <c r="M40" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="N40" s="96"/>
+      <c r="O40" s="88"/>
+      <c r="P40" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q40" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="R40" s="88"/>
+      <c r="S40" s="97"/>
+      <c r="T40" s="97"/>
+      <c r="U40" s="97"/>
+      <c r="V40" s="97"/>
+      <c r="W40" s="97"/>
+      <c r="X40" s="97"/>
+      <c r="Y40" s="95"/>
+      <c r="Z40" s="95"/>
+      <c r="AA40" s="99"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
+        <v>0</v>
+      </c>
+      <c r="B41" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="C41" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="D41" s="19">
+        <v>6</v>
+      </c>
+      <c r="E41" s="19">
         <v>2500</v>
       </c>
-      <c r="O24" s="20"/>
-      <c r="P24" s="19">
-        <v>76.5</v>
-      </c>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="19">
-        <v>213.5</v>
-      </c>
-      <c r="S24" s="20"/>
-      <c r="T24" s="19">
-        <v>2000</v>
-      </c>
-      <c r="U24" s="20"/>
-      <c r="V24" s="15">
-        <v>500</v>
-      </c>
-      <c r="W24" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="30"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="15">
-        <v>51</v>
-      </c>
-      <c r="F25" s="15">
+      <c r="F41" s="19">
+        <v>2500</v>
+      </c>
+      <c r="G41" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="N41" s="74"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="19">
+        <v>6</v>
+      </c>
+      <c r="Q41" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="R41" s="38"/>
+      <c r="S41" s="75"/>
+      <c r="T41" s="76"/>
+      <c r="U41" s="76"/>
+      <c r="V41" s="76"/>
+      <c r="W41" s="76"/>
+      <c r="X41" s="77"/>
+      <c r="Y41" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z41" s="74"/>
+      <c r="AA41" s="44"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="28">
+        <v>24</v>
+      </c>
+      <c r="E42" s="54"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="55"/>
+      <c r="W42" s="55"/>
+      <c r="X42" s="55"/>
+      <c r="Y42" s="55"/>
+      <c r="Z42" s="55"/>
+      <c r="AA42" s="56"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="14"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="58"/>
+      <c r="P44" s="58"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="58"/>
+      <c r="S44" s="58"/>
+      <c r="T44" s="58"/>
+      <c r="U44" s="58"/>
+      <c r="V44" s="58"/>
+      <c r="W44" s="58"/>
+      <c r="X44" s="58"/>
+      <c r="Y44" s="58"/>
+      <c r="Z44" s="58"/>
+      <c r="AA44" s="59"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45" s="52"/>
+      <c r="B45" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="G25" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="15">
-        <v>8.6199999999999992</v>
-      </c>
-      <c r="M25" s="15">
-        <v>8.82</v>
-      </c>
-      <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="23"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="18">
-        <v>8.6199999999999992</v>
-      </c>
-      <c r="M26" s="18">
-        <v>8.82</v>
-      </c>
-      <c r="N26" s="19"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="23"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="H45" s="63"/>
+      <c r="I45" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="N45" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="O45" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="R45" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="S45" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="V45" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="W45" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="X45" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y45" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z45" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA45" s="68"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" s="52"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="P46" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="67"/>
+      <c r="AA46" s="69"/>
+    </row>
+    <row r="47" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="52"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="H47" s="71"/>
+      <c r="I47" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="J47" s="72"/>
+      <c r="K47" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="L47" s="72"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="37"/>
+      <c r="AA47" s="44"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="47"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="37">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J48" s="38"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="37"/>
+      <c r="AA48" s="44"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="47"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="27">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G49" s="37">
+        <v>2500</v>
+      </c>
+      <c r="H49" s="38"/>
+      <c r="I49" s="37">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J49" s="38"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="37"/>
+      <c r="AA49" s="44"/>
+    </row>
+    <row r="50" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="46"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="34">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G50" s="42">
+        <v>2500</v>
+      </c>
+      <c r="H50" s="51"/>
+      <c r="I50" s="42">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J50" s="51"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="51"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="42"/>
+      <c r="AA50" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="A2:AA2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="Q5:AA5"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:F5"/>
+  <mergeCells count="189">
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="A25:AA25"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="A26:AA26"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="W9:AA10"/>
     <mergeCell ref="A11:Q11"/>
     <mergeCell ref="S11:AA11"/>
@@ -2307,47 +3894,148 @@
     <mergeCell ref="L15:Q16"/>
     <mergeCell ref="S15:V16"/>
     <mergeCell ref="W15:AA16"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="A2:AA2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="Q5:AA5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E27:F29"/>
+    <mergeCell ref="G27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:L29"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A21:AA21"/>
     <mergeCell ref="A22:M22"/>
     <mergeCell ref="N22:AA22"/>
-    <mergeCell ref="A17:Q17"/>
     <mergeCell ref="S17:AA17"/>
     <mergeCell ref="A18:C19"/>
     <mergeCell ref="D18:Q19"/>
     <mergeCell ref="S18:V19"/>
     <mergeCell ref="W18:AA19"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S28"/>
+    <mergeCell ref="T27:U28"/>
+    <mergeCell ref="V27:W28"/>
+    <mergeCell ref="X27:Y28"/>
+    <mergeCell ref="Z27:AA29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="B27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="A31:AA31"/>
+    <mergeCell ref="A32:AA32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:L34"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:X34"/>
+    <mergeCell ref="Y33:AA34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="V45:V46"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="E36:AA36"/>
+    <mergeCell ref="A37:AA37"/>
+    <mergeCell ref="A38:AA38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:L40"/>
+    <mergeCell ref="M39:R39"/>
+    <mergeCell ref="S39:X40"/>
+    <mergeCell ref="Y39:AA40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E42:AA42"/>
+    <mergeCell ref="A44:AA44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:C47"/>
+    <mergeCell ref="D45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:H46"/>
+    <mergeCell ref="I45:J46"/>
+    <mergeCell ref="K45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="S45:T46"/>
+    <mergeCell ref="Z45:AA46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="W45:W46"/>
+    <mergeCell ref="X45:X46"/>
+    <mergeCell ref="Y45:Y46"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:H48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
